--- a/coherence/res.xlsx
+++ b/coherence/res.xlsx
@@ -502,7 +502,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
